--- a/database/DB y Operaciones de Usuario.xlsx
+++ b/database/DB y Operaciones de Usuario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes Draft" sheetId="1" r:id="rId1"/>
@@ -7920,8 +7920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9843,8 +9843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/DB y Operaciones de Usuario.xlsx
+++ b/database/DB y Operaciones de Usuario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes Draft" sheetId="1" r:id="rId1"/>
@@ -7920,8 +7920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB90"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9843,7 +9843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>

--- a/database/DB y Operaciones de Usuario.xlsx
+++ b/database/DB y Operaciones de Usuario.xlsx
@@ -13,11 +13,12 @@
     <sheet name="Operaciones de Usuario" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="248">
   <si>
     <t>Teléfonos</t>
   </si>
@@ -407,9 +408,6 @@
   </si>
   <si>
     <t>Bitacora_NewData</t>
-  </si>
-  <si>
-    <t>Id_registronuevo: int(11)</t>
   </si>
   <si>
     <t>valor_nuevo: varchar(40)</t>
@@ -766,40 +764,88 @@
     <t>Gris</t>
   </si>
   <si>
-    <t>Resuelto por Diego</t>
-  </si>
-  <si>
     <t>id_asignacion_estudiante: int(11)</t>
   </si>
   <si>
     <t>id_asignacion_catedratico: int(11)</t>
   </si>
   <si>
-    <t>Ya le puse una llave primaria doble, que usa esas dos foráneas.</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>*id_asignacion_catedratico: int(11)</t>
   </si>
   <si>
-    <t>Los tres campos en color piel son llaves primarias, y id_asignacion_catedratico es foranea a la vez. Gracias por el cambio del nombre de esa.</t>
-  </si>
-  <si>
-    <t>PendienteS:</t>
-  </si>
-  <si>
-    <t>Corregir empleado_trabajando a empleadoS_trabajando porque está mal especificado</t>
-  </si>
-  <si>
-    <t>El campo expedienteen_VCR se llama expedienteS_VCR. Corregir.</t>
-  </si>
-  <si>
-    <t>Especificar este constraint en empleados_laborando</t>
-  </si>
-  <si>
-    <t>Especificar este constraint en roles_de_sistema</t>
+    <t>Pendientes:</t>
+  </si>
+  <si>
+    <t>expediente_en_VCR: Boolean</t>
+  </si>
+  <si>
+    <t>Tabla terminada.</t>
+  </si>
+  <si>
+    <t>PROCESO DE CREACIÓN EN SQL</t>
+  </si>
+  <si>
+    <t>Tareas pendientes.</t>
+  </si>
+  <si>
+    <t>*fecha_asignacion: date()</t>
+  </si>
+  <si>
+    <t>carne: int(11)</t>
+  </si>
+  <si>
+    <t>Tabla terminada, con posibles mejoras.</t>
+  </si>
+  <si>
+    <t>No se hizo nada.</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
+  </si>
+  <si>
+    <t>Id_registro_nuevo: int(11)</t>
+  </si>
+  <si>
+    <t>fecha_de_ingreso: date()</t>
+  </si>
+  <si>
+    <t>hora_de_ingreso: time()</t>
+  </si>
+  <si>
+    <t>*id_registro_viejo: int(11)</t>
+  </si>
+  <si>
+    <t>*id_registro_nuevo: int(11)</t>
+  </si>
+  <si>
+    <t>id_registro_nuevo: int(11)</t>
+  </si>
+  <si>
+    <t>id_registro_viejo: int(11)</t>
+  </si>
+  <si>
+    <t>tipo_telefono: varchar(20)</t>
+  </si>
+  <si>
+    <t>id_duenio_tel: int(11)</t>
+  </si>
+  <si>
+    <t>id_duenio_correo: int(11)</t>
+  </si>
+  <si>
+    <t>id_duenio_direccion: int(11)</t>
+  </si>
+  <si>
+    <t>Especificar este constraint.</t>
+  </si>
+  <si>
+    <t>id_address: int(11)</t>
+  </si>
+  <si>
+    <t>address: varchar(140)</t>
+  </si>
+  <si>
+    <t>id_correspondiente: int(11)</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1417,6 +1462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5866,10 +5912,10 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="120"/>
+      <c r="C14" s="119"/>
       <c r="F14" s="3"/>
       <c r="H14" s="1" t="s">
         <v>48</v>
@@ -5948,8 +5994,8 @@
         <v>6</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
       <c r="K20" s="12" t="s">
         <v>46</v>
       </c>
@@ -5964,10 +6010,10 @@
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="119" t="s">
+      <c r="K21" s="118" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="119"/>
+      <c r="L21" s="118"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -5998,10 +6044,10 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="120" t="s">
+      <c r="B24" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="120"/>
+      <c r="C24" s="119"/>
       <c r="E24" t="s">
         <v>55</v>
       </c>
@@ -6054,10 +6100,10 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H30" s="121" t="s">
+      <c r="H30" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="121"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I31" s="3"/>
@@ -6084,8 +6130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView topLeftCell="N3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="J1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6118,153 +6164,153 @@
   <sheetData>
     <row r="1" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="69"/>
+      <c r="J2" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
     </row>
     <row r="3" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J3" s="70"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="112" t="s">
+      <c r="M3" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="110"/>
-      <c r="S3" s="71"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="69"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="70"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J4" s="70"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="56"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="W4" s="15"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="55"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="117"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="71"/>
+      <c r="AA4" s="70"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J5" s="70"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="56"/>
-      <c r="U5" s="96" t="s">
+      <c r="R5" s="18"/>
+      <c r="S5" s="55"/>
+      <c r="U5" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="W5" s="17"/>
+      <c r="V5" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" s="16"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="71"/>
+      <c r="AA5" s="70"/>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J6" s="70"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="56"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" s="19"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="55"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" s="18"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="71"/>
+      <c r="AA6" s="70"/>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J7" s="70"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="86" t="s">
+      <c r="Q7" s="85" t="s">
         <v>70</v>
       </c>
       <c r="R7" s="12"/>
-      <c r="S7" s="71"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="W7" s="123"/>
+      <c r="S7" s="70"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" s="122"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="71"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="70"/>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J8" s="70"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="85" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="12"/>
@@ -6272,208 +6318,208 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="71"/>
-      <c r="U8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="71"/>
+      <c r="Y8" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="70"/>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J9" s="70"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="112" t="s">
+      <c r="O9" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="15"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="71"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="14" t="s">
+      <c r="S9" s="70"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="W9" s="15"/>
+      <c r="W9" s="117"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="71"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="70"/>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J10" s="70"/>
-      <c r="K10" s="108" t="s">
+      <c r="J10" s="69"/>
+      <c r="K10" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="110"/>
+      <c r="L10" s="109"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="17"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="71"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="61" t="s">
+      <c r="S10" s="70"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="W10" s="17"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="18" t="s">
+      <c r="Y10" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="71"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="70"/>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J11" s="70"/>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="69"/>
+      <c r="K11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L11" s="21"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="71"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="18" t="s">
+      <c r="S11" s="70"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="18"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="71"/>
+      <c r="Y11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="70"/>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J12" s="70"/>
-      <c r="K12" s="42" t="s">
+      <c r="J12" s="69"/>
+      <c r="K12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="71"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="18" t="s">
+      <c r="S12" s="70"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="19"/>
+      <c r="W12" s="18"/>
       <c r="X12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="71"/>
+      <c r="Y12" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="70"/>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J13" s="70"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="71" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="23"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="71"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="18" t="s">
+      <c r="S13" s="70"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="72" t="s">
+      <c r="W13" s="18"/>
+      <c r="X13" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Y13" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="71"/>
+      <c r="Y13" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="70"/>
     </row>
     <row r="14" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="13"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="22" t="s">
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="W14" s="23"/>
+      <c r="W14" s="22"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="71"/>
+      <c r="Y14" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="70"/>
     </row>
     <row r="15" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13"/>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="73"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="75"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="74"/>
     </row>
     <row r="16" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="69"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -6489,25 +6535,25 @@
       <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
-        <v>142</v>
+      <c r="A18" s="90" t="s">
+        <v>141</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="108" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="71"/>
+      <c r="M18" s="70"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -6523,271 +6569,271 @@
       <c r="AB18" s="12"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="50"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="85" t="s">
         <v>70</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="71"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="85" t="s">
+      <c r="M19" s="70"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="84" t="s">
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="U19" s="98" t="s">
+      <c r="U19" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68" t="s">
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="69"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="68"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="72" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="71"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="108" t="s">
+      <c r="M20" s="70"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="Q20" s="110"/>
+      <c r="Q20" s="109"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="108" t="s">
+      <c r="T20" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="110"/>
+      <c r="U20" s="109"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="108" t="s">
+      <c r="W20" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="X20" s="15"/>
+      <c r="X20" s="14"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="108" t="s">
+      <c r="Z20" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="AA20" s="110"/>
-      <c r="AB20" s="71"/>
+      <c r="AA20" s="109"/>
+      <c r="AB20" s="70"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="71"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="61" t="s">
+      <c r="M21" s="70"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="16"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="61" t="s">
+      <c r="T21" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="U21" s="17"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="61" t="s">
+      <c r="W21" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="X21" s="17"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="61" t="s">
+      <c r="Z21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="71"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="70"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="71"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="18" t="s">
+      <c r="M22" s="70"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="18" t="s">
+      <c r="T22" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="U22" s="19"/>
+      <c r="U22" s="18"/>
       <c r="V22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="W22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="X22" s="21"/>
+      <c r="X22" s="20"/>
       <c r="Y22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Z22" s="61" t="s">
+      <c r="Z22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="71"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="70"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="12" t="s">
         <v>71</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="71"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="18" t="s">
+      <c r="M23" s="70"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="18" t="s">
+      <c r="T23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="U23" s="19"/>
-      <c r="V23" s="72" t="s">
+      <c r="U23" s="18"/>
+      <c r="V23" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="W23" s="95" t="s">
+      <c r="W23" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="72" t="s">
+      <c r="X23" s="25"/>
+      <c r="Y23" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" s="18" t="s">
+      <c r="Z23" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="71"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="70"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="87" t="s">
+      <c r="I24" s="86" t="s">
         <v>70</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="71"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="19"/>
+      <c r="M24" s="70"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="18"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="18" t="s">
+      <c r="T24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="U24" s="19"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="71"/>
+      <c r="Z24" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="70"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -6796,39 +6842,39 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="71"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="19"/>
+      <c r="M25" s="70"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="18"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="62" t="s">
+      <c r="T25" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="U25" s="19"/>
+      <c r="U25" s="18"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="108" t="s">
+      <c r="W25" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="X25" s="15"/>
+      <c r="X25" s="14"/>
       <c r="Y25" s="12"/>
-      <c r="AB25" s="71"/>
+      <c r="AB25" s="70"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="71" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="40" t="s">
         <v>71</v>
       </c>
       <c r="I26" s="12"/>
@@ -6837,345 +6883,345 @@
         <v>71</v>
       </c>
       <c r="L26" s="12"/>
-      <c r="M26" s="71"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="19"/>
+      <c r="M26" s="70"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" s="18"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="62" t="s">
+      <c r="T26" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="U26" s="19"/>
+      <c r="U26" s="18"/>
       <c r="V26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W26" s="61" t="s">
+      <c r="W26" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="X26" s="17"/>
+      <c r="X26" s="16"/>
       <c r="Y26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AB26" s="71"/>
+      <c r="AB26" s="70"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="110"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="108" t="s">
+      <c r="H27" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="108" t="s">
+      <c r="K27" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="71"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="18" t="s">
+      <c r="L27" s="14"/>
+      <c r="M27" s="70"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="62" t="s">
+      <c r="T27" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="72" t="s">
+      <c r="U27" s="18"/>
+      <c r="V27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="W27" s="22" t="s">
+      <c r="W27" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="72" t="s">
+      <c r="X27" s="22"/>
+      <c r="Y27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="108" t="s">
+      <c r="Z27" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="AA27" s="110"/>
-      <c r="AB27" s="71"/>
+      <c r="AA27" s="109"/>
+      <c r="AB27" s="70"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="17"/>
+      <c r="E28" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="71"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q28" s="19"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="70"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" s="18"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="62" t="s">
+      <c r="T28" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="U28" s="19"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="71"/>
+      <c r="Z28" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="70"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="71" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="62" t="s">
+      <c r="H29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="71"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="19"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="70"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29" s="18"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="62" t="s">
+      <c r="T29" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="U29" s="19"/>
+      <c r="U29" s="18"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="20" t="s">
+      <c r="Z29" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="71"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="70"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="66"/>
+      <c r="H30" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="65"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="71"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q30" s="19"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="70"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" s="18"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="72" t="s">
+      <c r="S30" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="T30" s="62" t="s">
+      <c r="T30" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="19"/>
+      <c r="U30" s="18"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="72" t="s">
+      <c r="Y30" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="Z30" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="71"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="70"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="71"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q31" s="26"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="70"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="25"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="62" t="s">
+      <c r="T31" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="U31" s="19"/>
+      <c r="U31" s="18"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="62" t="s">
+      <c r="Z31" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="71"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="70"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="129" t="s">
+      <c r="K32" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="130"/>
-      <c r="M32" s="71"/>
-      <c r="O32" s="70"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="70"/>
+      <c r="O32" s="69"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-      <c r="T32" s="62" t="s">
+      <c r="T32" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="U32" s="19"/>
+      <c r="U32" s="18"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="18" t="s">
+      <c r="Z32" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="71"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="70"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="41" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="40" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="71"/>
-      <c r="O33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="O33" s="69"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="62" t="s">
+      <c r="T33" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U33" s="19"/>
+      <c r="U33" s="18"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
-      <c r="Z33" s="18" t="s">
+      <c r="Z33" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="71"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="70"/>
     </row>
     <row r="34" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="85" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -7189,57 +7235,57 @@
         <v>70</v>
       </c>
       <c r="L34" s="12"/>
-      <c r="M34" s="71"/>
-      <c r="O34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="O34" s="69"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="U34" s="19"/>
+      <c r="T34" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="U34" s="18"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
-      <c r="Z34" s="64" t="s">
+      <c r="Z34" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="71"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="70"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="108" t="s">
+      <c r="H35" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="36"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="71"/>
-      <c r="O35" s="91" t="s">
-        <v>156</v>
+      <c r="K35" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="70"/>
+      <c r="O35" s="90" t="s">
+        <v>155</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="U35" s="19"/>
+      <c r="T35" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="U35" s="18"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
@@ -7248,10 +7294,10 @@
       <c r="AA35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AB35" s="71"/>
+      <c r="AB35" s="70"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -7260,90 +7306,90 @@
         <v>71</v>
       </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="37"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="71"/>
-      <c r="O36" s="70"/>
+      <c r="K36" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="70"/>
+      <c r="O36" s="69"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
-      <c r="T36" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="U36" s="23"/>
+      <c r="T36" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="U36" s="22"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="71"/>
+      <c r="AB36" s="70"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="109" t="s">
+      <c r="E37" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="35"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="71"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="97" t="s">
+      <c r="K37" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="18"/>
+      <c r="M37" s="70"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="75"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="74"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="35"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="129" t="s">
+      <c r="K38" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="130"/>
-      <c r="M38" s="71"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="70"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
@@ -7359,23 +7405,23 @@
       <c r="AB38" s="12"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="35"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="71"/>
+      <c r="M39" s="70"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
@@ -7391,394 +7437,394 @@
       <c r="AB39" s="12"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="71"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="70"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="70"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="71"/>
+      <c r="M41" s="70"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="71"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53" t="s">
+      <c r="M42" s="70"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AB42" s="54"/>
+      <c r="AB42" s="53"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="126" t="s">
+      <c r="E43" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="127"/>
+      <c r="F43" s="126"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="124" t="s">
+      <c r="H43" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="125"/>
+      <c r="I43" s="124"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-      <c r="M43" s="71"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="108" t="s">
+      <c r="M43" s="70"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="AA43" s="110"/>
-      <c r="AB43" s="56"/>
+      <c r="AA43" s="109"/>
+      <c r="AB43" s="55"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-      <c r="M44" s="71"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="56"/>
+      <c r="M44" s="70"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="55"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="97" t="s">
+      <c r="A45" s="72"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="75"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="61" t="s">
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="74"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="56"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="55"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X46" s="12"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="61" t="s">
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="56"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="55"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N47" s="67"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68" t="s">
+      <c r="N47" s="66"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="69"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
       <c r="X47" s="12"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="62" t="s">
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="AA47" s="63"/>
-      <c r="AB47" s="56"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="55"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N48" s="70"/>
-      <c r="O48" s="109" t="s">
+      <c r="N48" s="69"/>
+      <c r="O48" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="29"/>
+      <c r="P48" s="28"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="S48" s="60"/>
+      <c r="R48" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="S48" s="59"/>
       <c r="T48" s="12"/>
-      <c r="U48" s="71"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="62" t="s">
+      <c r="U48" s="70"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="56"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="55"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N49" s="70"/>
-      <c r="O49" s="24" t="s">
+      <c r="N49" s="69"/>
+      <c r="O49" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P49" s="30"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
-      <c r="U49" s="71"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="64" t="s">
+      <c r="U49" s="70"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="56"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="55"/>
     </row>
     <row r="50" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N50" s="96" t="s">
+      <c r="N50" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="O50" s="18" t="s">
+      <c r="O50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="19"/>
+      <c r="P50" s="18"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="71"/>
-      <c r="Y50" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="59"/>
+      <c r="U50" s="70"/>
+      <c r="Y50" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="58"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N51" s="70"/>
-      <c r="O51" s="20" t="s">
+      <c r="N51" s="69"/>
+      <c r="O51" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="21"/>
+      <c r="P51" s="20"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="72" t="s">
+      <c r="T51" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="U51" s="71"/>
+      <c r="U51" s="70"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N52" s="70"/>
-      <c r="O52" s="22" t="s">
+      <c r="N52" s="69"/>
+      <c r="O52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P52" s="23"/>
+      <c r="P52" s="22"/>
       <c r="Q52" s="13"/>
-      <c r="R52" s="111" t="s">
+      <c r="R52" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="S52" s="92"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="71"/>
+      <c r="S52" s="91"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="70"/>
       <c r="V52" s="12"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="N53" s="70"/>
+      <c r="N53" s="69"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="Q53" s="13"/>
-      <c r="R53" s="78" t="s">
+      <c r="R53" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="S53" s="34"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="71"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="70"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N54" s="70"/>
+      <c r="N54" s="69"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12" t="s">
         <v>70</v>
       </c>
       <c r="Q54" s="12"/>
-      <c r="R54" s="80" t="s">
+      <c r="R54" s="79" t="s">
         <v>114</v>
       </c>
       <c r="S54" s="12"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="71"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="70"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N55" s="70"/>
-      <c r="O55" s="109" t="s">
+        <v>190</v>
+      </c>
+      <c r="N55" s="69"/>
+      <c r="O55" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="29"/>
+      <c r="P55" s="28"/>
       <c r="Q55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R55" s="82" t="s">
+      <c r="R55" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="S55" s="93"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="71"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="70"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="113" t="s">
+      <c r="A56" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
         <v>192</v>
       </c>
-      <c r="B56" t="s">
+      <c r="N56" s="69"/>
+      <c r="O56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="S56" s="86"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="70"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="N56" s="70"/>
-      <c r="O56" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="S56" s="87"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="71"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="114" t="s">
+      <c r="B57" t="s">
         <v>194</v>
       </c>
-      <c r="B57" t="s">
-        <v>195</v>
-      </c>
-      <c r="N57" s="70"/>
-      <c r="O57" s="18" t="s">
+      <c r="N57" s="69"/>
+      <c r="O57" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P57" s="19"/>
+      <c r="P57" s="18"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
-      <c r="U57" s="71"/>
+      <c r="U57" s="70"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="114" t="s">
-        <v>194</v>
+      <c r="A58" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
-      </c>
-      <c r="N58" s="70"/>
-      <c r="O58" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="N58" s="69"/>
+      <c r="O58" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="P58" s="23"/>
+      <c r="P58" s="22"/>
       <c r="Q58" s="12" t="s">
         <v>70</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="71"/>
+      <c r="U58" s="70"/>
     </row>
     <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" t="s">
         <v>197</v>
       </c>
-      <c r="B59" t="s">
-        <v>198</v>
-      </c>
-      <c r="N59" s="73"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="75"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="74"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="116" t="s">
+      <c r="A62" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
@@ -7786,7 +7832,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
@@ -7794,7 +7840,7 @@
         <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -7802,10 +7848,10 @@
         <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -7813,10 +7859,10 @@
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -7824,7 +7870,7 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -7832,7 +7878,7 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -7840,15 +7886,15 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -7859,10 +7905,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -7873,10 +7919,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -7887,15 +7933,15 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7918,10 +7964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB90"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="I21" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7938,13 +7984,13 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
     <col min="18" max="18" width="8.42578125" customWidth="1"/>
     <col min="19" max="19" width="5.28515625" customWidth="1"/>
     <col min="20" max="20" width="18.42578125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" customWidth="1"/>
     <col min="24" max="24" width="13.42578125" customWidth="1"/>
     <col min="25" max="25" width="16.28515625" customWidth="1"/>
     <col min="26" max="26" width="14" customWidth="1"/>
@@ -7954,153 +8000,153 @@
   <sheetData>
     <row r="1" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="69"/>
+      <c r="J2" s="93" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="68"/>
     </row>
     <row r="3" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J3" s="70"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="112" t="s">
+      <c r="M3" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="109"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="110"/>
-      <c r="S3" s="71"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="69"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="70"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J4" s="70"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="16"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
-      <c r="Q4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="56"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="108" t="s">
-        <v>138</v>
-      </c>
-      <c r="W4" s="110"/>
+      <c r="Q4" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="55"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="107" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="117"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="71"/>
+      <c r="AA4" s="70"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J5" s="70"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="19"/>
+      <c r="M5" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5" s="18"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="56"/>
-      <c r="U5" s="96" t="s">
+      <c r="Q5" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="R5" s="18"/>
+      <c r="S5" s="55"/>
+      <c r="U5" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="W5" s="17"/>
+      <c r="V5" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" s="16"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="71"/>
+      <c r="AA5" s="70"/>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J6" s="70"/>
+      <c r="J6" s="69"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="56"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" s="19"/>
+      <c r="Q6" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="R6" s="64"/>
+      <c r="S6" s="55"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" s="18"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="71"/>
+      <c r="AA6" s="70"/>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J7" s="70"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="23"/>
+      <c r="M7" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="N7" s="64"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="86" t="s">
+      <c r="Q7" s="85" t="s">
         <v>70</v>
       </c>
       <c r="R7" s="12"/>
-      <c r="S7" s="71"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="W7" s="123"/>
+      <c r="S7" s="70"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="121" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" s="122"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="14" t="s">
+      <c r="Y7" s="107" t="s">
         <v>129</v>
       </c>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="71"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="70"/>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J8" s="70"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="86" t="s">
+      <c r="M8" s="85" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="12"/>
@@ -8108,208 +8154,208 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="71"/>
-      <c r="U8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="71"/>
+      <c r="Y8" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="70"/>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J9" s="70"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="112" t="s">
+      <c r="O9" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="15"/>
+      <c r="P9" s="109"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="71"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="14" t="s">
+      <c r="S9" s="70"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="W9" s="15"/>
+      <c r="W9" s="117"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="71"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="70"/>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J10" s="70"/>
-      <c r="K10" s="108" t="s">
+      <c r="J10" s="69"/>
+      <c r="K10" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="110"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="17"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="71"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="W10" s="17"/>
+      <c r="S10" s="70"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="W10" s="16"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="18" t="s">
+      <c r="Y10" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="71"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="70"/>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J11" s="70"/>
-      <c r="K11" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="21"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" s="16"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="19"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="71"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="18" t="s">
+      <c r="S11" s="70"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="18"/>
       <c r="X11" s="12"/>
-      <c r="Y11" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="71"/>
+      <c r="Y11" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="70"/>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J12" s="70"/>
-      <c r="K12" s="42" t="s">
+      <c r="J12" s="69"/>
+      <c r="K12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="19"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="71"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="18" t="s">
+      <c r="S12" s="70"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="19"/>
+      <c r="W12" s="18"/>
       <c r="X12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="71"/>
+      <c r="Y12" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="70"/>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J13" s="70"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="72" t="s">
+      <c r="L13" s="71" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="23"/>
+      <c r="O13" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="P13" s="64"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="71"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="18" t="s">
+      <c r="S13" s="70"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="72" t="s">
+      <c r="W13" s="18"/>
+      <c r="X13" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Y13" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="71"/>
+      <c r="Y13" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="70"/>
     </row>
     <row r="14" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="13"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="W14" s="23"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="W14" s="22"/>
       <c r="X14" s="12"/>
-      <c r="Y14" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="71"/>
+      <c r="Y14" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="70"/>
     </row>
     <row r="15" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13"/>
-      <c r="N15" s="25" t="s">
+      <c r="N15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="73"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="75"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="74"/>
     </row>
     <row r="16" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="69"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="68"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -8325,25 +8371,25 @@
       <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
-        <v>142</v>
+      <c r="A18" s="90" t="s">
+        <v>141</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="108" t="s">
+      <c r="F18" s="48"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="71"/>
+      <c r="M18" s="70"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -8359,271 +8405,271 @@
       <c r="AB18" s="12"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="50"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="85" t="s">
         <v>70</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="71"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="85" t="s">
+      <c r="M19" s="70"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="84" t="s">
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="U19" s="98" t="s">
+      <c r="U19" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68" t="s">
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="69"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="67"/>
+      <c r="AB19" s="68"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="72" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="71"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="108" t="s">
+      <c r="M20" s="70"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="Q20" s="110"/>
+      <c r="Q20" s="109"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="108" t="s">
+      <c r="T20" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="U20" s="110"/>
+      <c r="U20" s="109"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="108" t="s">
+      <c r="W20" s="107" t="s">
         <v>93</v>
       </c>
-      <c r="X20" s="15"/>
+      <c r="X20" s="117"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="108" t="s">
+      <c r="Z20" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="71"/>
+      <c r="AA20" s="117"/>
+      <c r="AB20" s="70"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="71"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="61" t="s">
+      <c r="M21" s="70"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="17"/>
+      <c r="Q21" s="16"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="61" t="s">
+      <c r="T21" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="U21" s="17"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="61" t="s">
+      <c r="W21" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="X21" s="17"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="61" t="s">
+      <c r="Z21" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="71"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="70"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="71"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="18" t="s">
+      <c r="M22" s="70"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="19"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="19"/>
+      <c r="T22" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="U22" s="18"/>
       <c r="V22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="W22" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="X22" s="21"/>
+      <c r="X22" s="20"/>
       <c r="Y22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Z22" s="61" t="s">
+      <c r="Z22" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="71"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="70"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="22" t="s">
+      <c r="H23" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="12" t="s">
         <v>71</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="71"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="18" t="s">
+      <c r="M23" s="70"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="19"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="18" t="s">
+      <c r="T23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="U23" s="19"/>
-      <c r="V23" s="72" t="s">
+      <c r="U23" s="18"/>
+      <c r="V23" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="W23" s="95" t="s">
+      <c r="W23" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="72" t="s">
+      <c r="X23" s="25"/>
+      <c r="Y23" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Z23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="71"/>
+      <c r="Z23" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="70"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="70"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="87" t="s">
+      <c r="I24" s="86" t="s">
         <v>70</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="71"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="19"/>
+      <c r="M24" s="70"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="18"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="18" t="s">
+      <c r="T24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="U24" s="19"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
-      <c r="Z24" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="71"/>
+      <c r="Z24" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="70"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -8632,39 +8678,39 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="71"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="19"/>
+      <c r="M25" s="70"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="18"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="62" t="s">
+      <c r="T25" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="U25" s="19"/>
+      <c r="U25" s="18"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="108" t="s">
+      <c r="W25" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="X25" s="15"/>
+      <c r="X25" s="117"/>
       <c r="Y25" s="12"/>
-      <c r="AB25" s="71"/>
+      <c r="AB25" s="70"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="71" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="105" t="s">
+      <c r="H26" s="104" t="s">
         <v>71</v>
       </c>
       <c r="I26" s="12"/>
@@ -8673,345 +8719,345 @@
         <v>71</v>
       </c>
       <c r="L26" s="12"/>
-      <c r="M26" s="71"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="19"/>
+      <c r="M26" s="70"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q26" s="18"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="62" t="s">
+      <c r="T26" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="U26" s="19"/>
+      <c r="U26" s="18"/>
       <c r="V26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W26" s="61" t="s">
+      <c r="W26" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="X26" s="17"/>
+      <c r="X26" s="16"/>
       <c r="Y26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AB26" s="71"/>
+      <c r="AB26" s="70"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="110"/>
+      <c r="F27" s="109"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="108" t="s">
+      <c r="H27" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="108" t="s">
+      <c r="K27" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="71"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="18" t="s">
+      <c r="L27" s="14"/>
+      <c r="M27" s="70"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="Q27" s="19"/>
+      <c r="Q27" s="18"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="62" t="s">
+      <c r="T27" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="72" t="s">
+      <c r="U27" s="18"/>
+      <c r="V27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="W27" s="22" t="s">
+      <c r="W27" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="72" t="s">
+      <c r="X27" s="22"/>
+      <c r="Y27" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="108" t="s">
+      <c r="Z27" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="71"/>
+      <c r="AA27" s="117"/>
+      <c r="AB27" s="70"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="17"/>
+      <c r="E28" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="16"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="24" t="s">
+      <c r="H28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="24" t="s">
+      <c r="K28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="71"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q28" s="19"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="70"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q28" s="18"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="62" t="s">
+      <c r="T28" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="U28" s="19"/>
+      <c r="U28" s="18"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="71"/>
+      <c r="Z28" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="70"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="71" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="62" t="s">
+      <c r="H29" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="63"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="18" t="s">
+      <c r="K29" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="71"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q29" s="19"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="70"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q29" s="18"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="62" t="s">
+      <c r="T29" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="U29" s="19"/>
+      <c r="U29" s="18"/>
       <c r="V29" s="12"/>
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
-      <c r="Z29" s="20" t="s">
+      <c r="Z29" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="71"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="70"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="66"/>
+      <c r="H30" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="65"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="18" t="s">
+      <c r="K30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="71"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q30" s="19"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="70"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" s="18"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="72" t="s">
+      <c r="S30" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="T30" s="62" t="s">
+      <c r="T30" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="19"/>
+      <c r="U30" s="18"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="72" t="s">
+      <c r="Y30" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="Z30" s="20" t="s">
+      <c r="Z30" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="71"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="70"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="L31" s="21"/>
-      <c r="M31" s="71"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q31" s="26"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="70"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="25"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="62" t="s">
+      <c r="T31" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="U31" s="19"/>
+      <c r="U31" s="18"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="62" t="s">
+      <c r="Z31" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="AA31" s="63"/>
-      <c r="AB31" s="71"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="70"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="72" t="s">
+      <c r="D32" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="30" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="129" t="s">
+      <c r="K32" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="130"/>
-      <c r="M32" s="71"/>
-      <c r="O32" s="70"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="70"/>
+      <c r="O32" s="69"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-      <c r="T32" s="62" t="s">
+      <c r="T32" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="U32" s="19"/>
+      <c r="U32" s="18"/>
       <c r="V32" s="12"/>
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
-      <c r="Z32" s="18" t="s">
+      <c r="Z32" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="71"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="70"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="105" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="104" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="71"/>
-      <c r="O33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="O33" s="69"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="62" t="s">
+      <c r="T33" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U33" s="19"/>
+      <c r="U33" s="18"/>
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
-      <c r="Z33" s="18" t="s">
+      <c r="Z33" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="71"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="70"/>
     </row>
     <row r="34" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="85" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -9025,57 +9071,57 @@
         <v>70</v>
       </c>
       <c r="L34" s="12"/>
-      <c r="M34" s="71"/>
-      <c r="O34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="O34" s="69"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="U34" s="19"/>
+      <c r="T34" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="U34" s="18"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
-      <c r="Z34" s="64" t="s">
+      <c r="Z34" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="71"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="70"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="108" t="s">
+      <c r="H35" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="36"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="L35" s="15"/>
-      <c r="M35" s="71"/>
-      <c r="O35" s="91" t="s">
-        <v>156</v>
+      <c r="K35" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="70"/>
+      <c r="O35" s="90" t="s">
+        <v>155</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="U35" s="19"/>
+      <c r="T35" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="U35" s="18"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
@@ -9084,10 +9130,10 @@
       <c r="AA35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AB35" s="71"/>
+      <c r="AB35" s="70"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="70"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -9096,90 +9142,90 @@
         <v>71</v>
       </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="37"/>
+      <c r="I36" s="36"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="71"/>
-      <c r="O36" s="70"/>
+      <c r="K36" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="16"/>
+      <c r="M36" s="70"/>
+      <c r="O36" s="69"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
-      <c r="T36" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="U36" s="23"/>
+      <c r="T36" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="U36" s="22"/>
       <c r="V36" s="12"/>
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="71"/>
+      <c r="AB36" s="70"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="70"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="109" t="s">
+      <c r="E37" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="35"/>
+      <c r="I37" s="34"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="19"/>
-      <c r="M37" s="71"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="97" t="s">
+      <c r="K37" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="18"/>
+      <c r="M37" s="70"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="73"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="75"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="74"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="38" t="s">
+      <c r="H38" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="35"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="129" t="s">
+      <c r="K38" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="130"/>
-      <c r="M38" s="71"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="70"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
@@ -9195,23 +9241,23 @@
       <c r="AB38" s="12"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="35"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="71"/>
+      <c r="M39" s="70"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
@@ -9227,602 +9273,679 @@
       <c r="AB39" s="12"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="71"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="70"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="70"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="38" t="s">
+      <c r="H41" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="35"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="71"/>
+      <c r="M41" s="70"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="33"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="71"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53" t="s">
+      <c r="M42" s="70"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AB42" s="54"/>
+      <c r="AB42" s="53"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
+      <c r="A43" s="69"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="126" t="s">
+      <c r="E43" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="127"/>
+      <c r="F43" s="126"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="124" t="s">
+      <c r="H43" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="125"/>
+      <c r="I43" s="124"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-      <c r="M43" s="71"/>
-      <c r="Y43" s="55"/>
-      <c r="Z43" s="108" t="s">
+      <c r="M43" s="70"/>
+      <c r="Y43" s="54"/>
+      <c r="Z43" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="AA43" s="118"/>
-      <c r="AB43" s="56"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="55"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
+      <c r="A44" s="69"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="26"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-      <c r="M44" s="71"/>
-      <c r="Y44" s="55"/>
-      <c r="Z44" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA44" s="21"/>
-      <c r="AB44" s="56"/>
+      <c r="M44" s="70"/>
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="60" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="55"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="97" t="s">
+      <c r="A45" s="72"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="75"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="61" t="s">
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="74"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="56"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="55"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X46" s="12"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="61" t="s">
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="56"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="55"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N47" s="67"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68" t="s">
+      <c r="N47" s="66"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="69"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="67"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="68"/>
       <c r="X47" s="12"/>
-      <c r="Y47" s="55"/>
-      <c r="Z47" s="62" t="s">
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="AA47" s="63"/>
-      <c r="AB47" s="56"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="55"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N48" s="70"/>
-      <c r="O48" s="109" t="s">
+      <c r="N48" s="69"/>
+      <c r="O48" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="29"/>
+      <c r="P48" s="130"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="S48" s="60"/>
+      <c r="R48" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="S48" s="59"/>
       <c r="T48" s="12"/>
-      <c r="U48" s="71"/>
-      <c r="Y48" s="55"/>
-      <c r="Z48" s="62" t="s">
+      <c r="U48" s="70"/>
+      <c r="Y48" s="54"/>
+      <c r="Z48" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="AA48" s="63"/>
-      <c r="AB48" s="56"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="55"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N49" s="70"/>
-      <c r="O49" s="24" t="s">
+      <c r="N49" s="69"/>
+      <c r="O49" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P49" s="30"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
-      <c r="U49" s="71"/>
-      <c r="Y49" s="55"/>
-      <c r="Z49" s="64" t="s">
+      <c r="U49" s="70"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="56"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="55"/>
     </row>
     <row r="50" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N50" s="96" t="s">
+      <c r="N50" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="O50" s="18" t="s">
+      <c r="O50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P50" s="19"/>
+      <c r="P50" s="18"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="71"/>
-      <c r="Y50" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="59"/>
+      <c r="U50" s="70"/>
+      <c r="Y50" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="58"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N51" s="70"/>
-      <c r="O51" s="20" t="s">
+      <c r="N51" s="69"/>
+      <c r="O51" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="21"/>
+      <c r="P51" s="20"/>
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="72" t="s">
+      <c r="T51" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="U51" s="71"/>
+      <c r="U51" s="70"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N52" s="70"/>
-      <c r="O52" s="22" t="s">
+      <c r="N52" s="69"/>
+      <c r="O52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P52" s="23"/>
+      <c r="P52" s="22"/>
       <c r="Q52" s="13"/>
-      <c r="R52" s="111" t="s">
+      <c r="R52" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="S52" s="92"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="71"/>
+      <c r="S52" s="91"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="70"/>
       <c r="V52" s="12"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="N53" s="70"/>
+      <c r="N53" s="69"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="Q53" s="13"/>
-      <c r="R53" s="78" t="s">
+      <c r="R53" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="S53" s="34"/>
-      <c r="T53" s="79"/>
-      <c r="U53" s="71"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="70"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N54" s="70"/>
+      <c r="N54" s="69"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12" t="s">
         <v>70</v>
       </c>
       <c r="Q54" s="12"/>
-      <c r="R54" s="80" t="s">
+      <c r="R54" s="79" t="s">
         <v>114</v>
       </c>
       <c r="S54" s="12"/>
-      <c r="T54" s="81"/>
-      <c r="U54" s="71"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="70"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="N55" s="70"/>
-      <c r="O55" s="109" t="s">
+        <v>226</v>
+      </c>
+      <c r="N55" s="69"/>
+      <c r="O55" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="29"/>
+      <c r="P55" s="130"/>
       <c r="Q55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R55" s="82" t="s">
+      <c r="R55" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="S55" s="93"/>
-      <c r="T55" s="83"/>
-      <c r="U55" s="71"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="70"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="113" t="s">
-        <v>192</v>
+      <c r="A56" s="112" t="s">
+        <v>191</v>
       </c>
       <c r="B56" t="s">
+        <v>225</v>
+      </c>
+      <c r="N56" s="69"/>
+      <c r="O56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="S56" s="86"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="70"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="N56" s="70"/>
-      <c r="O56" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="87" t="s">
-        <v>71</v>
-      </c>
-      <c r="S56" s="87"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="71"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="114" t="s">
-        <v>194</v>
-      </c>
       <c r="B57" t="s">
-        <v>195</v>
-      </c>
-      <c r="N57" s="70"/>
-      <c r="O57" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="N57" s="69"/>
+      <c r="O57" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P57" s="19"/>
+      <c r="P57" s="18"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
-      <c r="U57" s="71"/>
+      <c r="U57" s="70"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="114" t="s">
-        <v>194</v>
+      <c r="A58" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="113" t="s">
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
-      </c>
-      <c r="G58" t="s">
-        <v>206</v>
-      </c>
-      <c r="N58" s="70"/>
-      <c r="O58" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="N58" s="69"/>
+      <c r="O58" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="P58" s="23"/>
+      <c r="P58" s="22"/>
       <c r="Q58" s="12" t="s">
         <v>70</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="71"/>
+      <c r="U58" s="70"/>
     </row>
     <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="115" t="s">
-        <v>197</v>
+      <c r="A59" s="114" t="s">
+        <v>196</v>
       </c>
       <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="N59" s="72"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
+      <c r="Q59" s="73"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="U59" s="74"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="N59" s="73"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="74"/>
-      <c r="R59" s="74"/>
-      <c r="S59" s="74"/>
-      <c r="T59" s="74"/>
-      <c r="U59" s="75"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="117" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="116" t="s">
+      <c r="B64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="109"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="18"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="107" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="109"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="18"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="109"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="18"/>
+      <c r="C83" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="B65" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>204</v>
-      </c>
-      <c r="H66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="117" t="s">
-        <v>210</v>
-      </c>
-      <c r="B70" s="117" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="117"/>
-      <c r="F70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="117" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="117" t="s">
-        <v>213</v>
-      </c>
-      <c r="B72" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="C72" s="117"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
-      <c r="I72" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="B73" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="19"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B87" s="19"/>
+      <c r="B86" s="109"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="18"/>
       <c r="C87" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B88" s="19"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="19"/>
-      <c r="C89" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="B90" s="123"/>
+        <v>244</v>
+      </c>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A90:B90"/>
+  <mergeCells count="6">
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="K38:L38"/>
@@ -9855,178 +9978,178 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="B7" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="100" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="101" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="B9" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="101" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="18"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="18"/>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="101"/>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="100">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="18"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="18"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="101">
-        <v>2</v>
-      </c>
-      <c r="B15" s="18" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+      <c r="B16" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="18" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="101" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="101"/>
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="18"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
-      <c r="B19" s="18"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="101"/>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="101"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="100">
+        <v>3</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B21" s="18"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="18"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
-      <c r="B23" s="18"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="101">
-        <v>3</v>
-      </c>
-      <c r="B24" s="18" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="101" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="102" t="s">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="B26" s="18"/>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="102" t="s">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="101"/>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="18"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="18"/>
-    </row>
-    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30" s="104"/>
+      <c r="B30" s="103"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="101"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="101"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="101">
+      <c r="A33" s="100">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -10034,73 +10157,73 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="101" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="101" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="101" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="101"/>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="101" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="102"/>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
+    <row r="42" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="101" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
+      <c r="A43" s="101"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="102"/>
+      <c r="A44" s="101"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
+      <c r="A45" s="101"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
+      <c r="A46" s="101"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
+      <c r="A47" s="101"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
+      <c r="A48" s="101"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
+      <c r="A49" s="101"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
+      <c r="A50" s="101"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
+      <c r="A51" s="101"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
+      <c r="A52" s="101"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
+      <c r="A53" s="101"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="102"/>
+      <c r="A54" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/DB y Operaciones de Usuario.xlsx
+++ b/database/DB y Operaciones de Usuario.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes Draft" sheetId="1" r:id="rId1"/>
-    <sheet name="Diagrama Completo" sheetId="3" r:id="rId2"/>
-    <sheet name="Diagrama Completo (2)" sheetId="5" r:id="rId3"/>
-    <sheet name="Operaciones de Usuario" sheetId="4" r:id="rId4"/>
+    <sheet name="Diagrama Completo" sheetId="5" r:id="rId2"/>
+    <sheet name="Operaciones de Usuario" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="220">
   <si>
     <t>Teléfonos</t>
   </si>
@@ -263,18 +261,9 @@
     <t>*id_director_carrera: int(11)</t>
   </si>
   <si>
-    <t>id_postulante: int(11)</t>
-  </si>
-  <si>
     <t>('Asesor', 'Catedrático')</t>
   </si>
   <si>
-    <t>id_empleado: int(11)</t>
-  </si>
-  <si>
-    <t>carné: int(11)</t>
-  </si>
-  <si>
     <t>dpi: int(13)</t>
   </si>
   <si>
@@ -302,9 +291,6 @@
     <t>Asesores</t>
   </si>
   <si>
-    <t>id_asesor: int(11)</t>
-  </si>
-  <si>
     <t>*id_empleado: int(11)</t>
   </si>
   <si>
@@ -338,9 +324,6 @@
     <t>Asignacion_Catedratico</t>
   </si>
   <si>
-    <t>id_catedratico: int(11)</t>
-  </si>
-  <si>
     <t>id_curso: int(11)</t>
   </si>
   <si>
@@ -401,21 +384,12 @@
     <t>valor_viejo: varchar(40)</t>
   </si>
   <si>
-    <t>*id_registronuevo: int(11)</t>
-  </si>
-  <si>
-    <t>Id_registroviejo: int(11)</t>
-  </si>
-  <si>
     <t>Bitacora_NewData</t>
   </si>
   <si>
     <t>valor_nuevo: varchar(40)</t>
   </si>
   <si>
-    <t>*id_registroviejo: int(11)</t>
-  </si>
-  <si>
     <t>id_estado: int(11)</t>
   </si>
   <si>
@@ -462,9 +436,6 @@
   </si>
   <si>
     <t>acta_aprobacion: int(11)</t>
-  </si>
-  <si>
-    <t>expedienteenVCR: Boolean</t>
   </si>
   <si>
     <t>entrevista_VCR: Boolean</t>
@@ -674,30 +645,15 @@
     <t>Que al hacer click en una de las asignaciones, me permita crear una nueva firma que llene un formulario con todos los campos que debe llenar el catedrático para llenar una tupla de firmas, y que se le de sumit para terminar de firmar para esa fecha  y hora específica.</t>
   </si>
   <si>
-    <t>COMENTARIOS</t>
-  </si>
-  <si>
     <t>Rojo</t>
   </si>
   <si>
-    <t>Termine Tabla</t>
-  </si>
-  <si>
     <t>Naranja</t>
   </si>
   <si>
-    <t>Me falto hacer algo</t>
-  </si>
-  <si>
-    <t>Lo termine pero podría agregarse otra cosa</t>
-  </si>
-  <si>
     <t>Celeste</t>
   </si>
   <si>
-    <t>No hice nada</t>
-  </si>
-  <si>
     <t>Tabla</t>
   </si>
   <si>
@@ -707,54 +663,6 @@
     <t xml:space="preserve">No hay tabla con la llave asesor_tesis, yo no agregue ninguna llave foranea a eso. </t>
   </si>
   <si>
-    <t>No se si es una llave foranea o primaria la correspondiente, yo la puse como primaria.</t>
-  </si>
-  <si>
-    <t>Pensaria asi la tabla:  id_telefono: int, telefono: int, tipo_telefono: varchar</t>
-  </si>
-  <si>
-    <t>Lo mismo que telefonos. Id_corre: int, correo: varchar, tipo_correo: varchar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_duenio no tiene tabla. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solo te dije el comentario de algunos que si veo importantes en la parte de abajo. </t>
-  </si>
-  <si>
-    <t>id_director_carrera no tiene tabla en la que es llave primria.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_duenio no tiene tabla en la que es llave primaria. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_decano no tiene tabla en la que es llave primaria. </t>
-  </si>
-  <si>
-    <t>asignacion_asesor</t>
-  </si>
-  <si>
-    <t>No tiene llave primaria.</t>
-  </si>
-  <si>
-    <t>Asignacion Estudiante</t>
-  </si>
-  <si>
-    <t>Asitnacion  Catedratico</t>
-  </si>
-  <si>
-    <t>Firmas Catedratico</t>
-  </si>
-  <si>
-    <t>Misma llave primaria que asignacion estudiante. Le cambie el nombre a id_asignacion_catedratico.</t>
-  </si>
-  <si>
-    <t>Misma llave primaria que asingaicon catedratico. Le cambie el nombre a id_asignacion_estudiante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llave foranea asignacion, que la cambie. Le puse como foranea id_asignacion_catedratico, pero debería llevar primaria. O era una llave primaria? </t>
-  </si>
-  <si>
     <t xml:space="preserve">Preferí dejarte a vos eso ya que sabes exactamente a que se debe lo que hiciste y puede que yo haya entendido mal algo. </t>
   </si>
   <si>
@@ -767,9 +675,6 @@
     <t>id_asignacion_estudiante: int(11)</t>
   </si>
   <si>
-    <t>id_asignacion_catedratico: int(11)</t>
-  </si>
-  <si>
     <t>*id_asignacion_catedratico: int(11)</t>
   </si>
   <si>
@@ -803,15 +708,6 @@
     <t>Resuelto</t>
   </si>
   <si>
-    <t>Id_registro_nuevo: int(11)</t>
-  </si>
-  <si>
-    <t>fecha_de_ingreso: date()</t>
-  </si>
-  <si>
-    <t>hora_de_ingreso: time()</t>
-  </si>
-  <si>
     <t>*id_registro_viejo: int(11)</t>
   </si>
   <si>
@@ -846,6 +742,24 @@
   </si>
   <si>
     <t>id_correspondiente: int(11)</t>
+  </si>
+  <si>
+    <t>id_asesor: int(11) - Auto-Increment</t>
+  </si>
+  <si>
+    <t>id_postulante: int(11) - Auto-Increment</t>
+  </si>
+  <si>
+    <t>id_empleado: int(11) - Auto-Increment</t>
+  </si>
+  <si>
+    <t>id_catedratico: int(11) - Auto-Increment</t>
+  </si>
+  <si>
+    <t>id_asignacion_catedratico: int(11) - Auto-Increment</t>
+  </si>
+  <si>
+    <t>Empleado_Laborando</t>
   </si>
 </sst>
 </file>
@@ -884,7 +798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,12 +831,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -940,7 +848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1011,10 +919,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right style="double">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="double">
         <color indexed="64"/>
       </top>
@@ -1026,39 +934,8 @@
       <right style="double">
         <color indexed="64"/>
       </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1263,11 +1140,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDotDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDotDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashDotDot">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1302,7 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1316,27 +1307,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1346,29 +1329,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1377,23 +1360,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1409,23 +1392,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1462,22 +1444,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1502,1979 +1489,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19052</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8011769" y="2915478"/>
-          <a:ext cx="1836253" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9719</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19245</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto 15"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1632664" y="7503367"/>
-          <a:ext cx="0" cy="398301"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>321624</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Conector recto 19"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5255202" y="4379026"/>
-          <a:ext cx="1103045" cy="590922"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1025769</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>831272</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>17320</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Conector recto 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2168769" y="9656885"/>
-          <a:ext cx="10055868" cy="17320"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>757331</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>934</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Conector recto 28"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5249956" y="3874434"/>
-          <a:ext cx="798419" cy="14941"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>940130</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>160812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>942976</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Conector recto 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6976753" y="4354286"/>
-          <a:ext cx="2846" cy="606136"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Conector recto 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7993673" y="4447442"/>
-          <a:ext cx="745148" cy="586154"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>182218</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Conector recto 42"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2194891" y="5927336"/>
-          <a:ext cx="1414069" cy="259773"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Conector recto 47"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2199409" y="5299364"/>
-          <a:ext cx="1402773" cy="105145"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15127</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15127</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Conector recto 50"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4519892" y="4964206"/>
-          <a:ext cx="0" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector recto 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7991475" y="4391026"/>
-          <a:ext cx="342900" cy="742949"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14654</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352428</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector recto 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7795846" y="4462096"/>
-          <a:ext cx="542928" cy="1355484"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Conector recto 36"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4486275" y="8515350"/>
-          <a:ext cx="9525" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>327421</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Conector recto 39"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4495800" y="8810625"/>
-          <a:ext cx="7223521" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>329045</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>335056</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>98502</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Conector recto 43"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11724409" y="7689273"/>
-          <a:ext cx="6011" cy="1293456"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>732694</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Conector recto 44"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7960488" y="3998346"/>
-          <a:ext cx="4298747" cy="35772"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>70758</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>20864</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Conector recto 21"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9827079" y="2925536"/>
-          <a:ext cx="5004707" cy="20864"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>489859</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector recto 26"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14845395" y="1170214"/>
-          <a:ext cx="13605" cy="1780170"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>88079</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>92592</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>46452</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Conector recto 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12348115" y="2519895"/>
-          <a:ext cx="4513" cy="452093"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>410070</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>31210</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Conector recto 48"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10941999" y="1374321"/>
-          <a:ext cx="11751" cy="1582425"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>10948</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>175173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15461</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47788</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Conector recto 49"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10554138" y="2244397"/>
-          <a:ext cx="4513" cy="649943"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1073515</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>187377</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>7808</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Conector recto 52"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="21462480" y="2307080"/>
-          <a:ext cx="839293" cy="3904"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>750794</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>753009</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Conector recto 59"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7978588" y="6017559"/>
-          <a:ext cx="764215" cy="621627"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1021773</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1039091</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Conector recto 78"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2164773" y="7446818"/>
-          <a:ext cx="17318" cy="2355273"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1039093</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="Conector recto 82"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2182093" y="6494318"/>
-          <a:ext cx="1420089" cy="987137"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="Conector recto 93"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14366875" y="10715625"/>
-          <a:ext cx="857250" cy="396875"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581396</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>583321</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="101" name="Conector recto 100"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="13904026" y="2832760"/>
-          <a:ext cx="1925" cy="766948"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>434883</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>17320</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="Conector recto 109"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="14377147" y="2891118"/>
-          <a:ext cx="2384707" cy="824143"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>606137</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>623455</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="Conector recto 116"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17958955" y="969818"/>
-          <a:ext cx="17318" cy="2770909"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>624758</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="Conector recto 119"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17954113" y="993468"/>
-          <a:ext cx="348226" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="Conector recto 122"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18335625" y="4276725"/>
-          <a:ext cx="819151" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="126" name="Conector recto 125"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18335625" y="4276725"/>
-          <a:ext cx="819151" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="Conector recto 127"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18335625" y="4276725"/>
-          <a:ext cx="819151" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="Conector recto 128"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="21364575" y="5267325"/>
-          <a:ext cx="1057277" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Conector recto 129"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="21997147" y="3283324"/>
-          <a:ext cx="0" cy="414618"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>2081</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="Conector recto 132"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12259235" y="3283323"/>
-          <a:ext cx="9728787" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="137" name="Conector recto 136"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12259236" y="3272118"/>
-          <a:ext cx="11205" cy="750795"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>389659</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>616877</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="Conector recto 139"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11790795" y="7576705"/>
-          <a:ext cx="9694491" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>536864</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>554183</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="141" name="Conector recto 140"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="21422591" y="3706091"/>
-          <a:ext cx="17319" cy="4017818"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="Conector recto 143"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="20921382" y="3709147"/>
-          <a:ext cx="504266" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>9506</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>24423</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="Conector recto 149"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="17499135" y="5873752"/>
-          <a:ext cx="4930756" cy="4127498"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>17322</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>10281</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="154" name="Conector recto 153"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="23372622" y="6638925"/>
-          <a:ext cx="1728" cy="1553331"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>459441</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="Conector recto 155"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="13772029" y="5902138"/>
-          <a:ext cx="2573992" cy="3309097"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>620569</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="Conector recto 158"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14345228" y="6999432"/>
-          <a:ext cx="2597727" cy="3449204"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5912,10 +3926,10 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="119"/>
+      <c r="C14" s="111"/>
       <c r="F14" s="3"/>
       <c r="H14" s="1" t="s">
         <v>48</v>
@@ -5994,8 +4008,8 @@
         <v>6</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
       <c r="K20" s="12" t="s">
         <v>46</v>
       </c>
@@ -6010,10 +4024,10 @@
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="118" t="s">
+      <c r="K21" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="118"/>
+      <c r="L21" s="110"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -6044,10 +4058,10 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="119" t="s">
+      <c r="B24" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="119"/>
+      <c r="C24" s="111"/>
       <c r="E24" t="s">
         <v>55</v>
       </c>
@@ -6100,10 +4114,10 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H30" s="120" t="s">
+      <c r="H30" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="120"/>
+      <c r="I30" s="112"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I31" s="3"/>
@@ -6128,1846 +4142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB76"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" customWidth="1"/>
-    <col min="20" max="20" width="18.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
-    <col min="25" max="25" width="16.28515625" customWidth="1"/>
-    <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
-    </row>
-    <row r="3" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J3" s="69"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="109"/>
-      <c r="S3" s="70"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
-    </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J4" s="69"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="55"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="W4" s="117"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="70"/>
-    </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J5" s="69"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="55"/>
-      <c r="U5" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="70"/>
-    </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J6" s="69"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="22"/>
-      <c r="S6" s="55"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="70"/>
-    </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J7" s="69"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="70"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="121" t="s">
-        <v>140</v>
-      </c>
-      <c r="W7" s="122"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="70"/>
-    </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J8" s="69"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="70"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="70"/>
-    </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J9" s="69"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="70"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="W9" s="117"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="70"/>
-    </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J10" s="69"/>
-      <c r="K10" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="70"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="70"/>
-    </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J11" s="69"/>
-      <c r="K11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="70"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="18"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="70"/>
-    </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J12" s="69"/>
-      <c r="K12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="70"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="W12" s="18"/>
-      <c r="X12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y12" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="70"/>
-    </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J13" s="69"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="70"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y13" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="70"/>
-    </row>
-    <row r="14" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="74"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="W14" s="22"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="70"/>
-    </row>
-    <row r="15" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="13"/>
-      <c r="N15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="74"/>
-    </row>
-    <row r="16" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="68"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="70"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="70"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="U19" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="68"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="70"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="U20" s="109"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="107" t="s">
-        <v>93</v>
-      </c>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="107" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA20" s="109"/>
-      <c r="AB20" s="70"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="70"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="U21" s="16"/>
-      <c r="V21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="W21" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="70"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="70"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="U22" s="18"/>
-      <c r="V22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="70"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="70"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" s="18"/>
-      <c r="V23" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="W23" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="70"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="70"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="18"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="70"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="70"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="U25" s="18"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="12"/>
-      <c r="AB25" s="70"/>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="70"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="U26" s="18"/>
-      <c r="V26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="W26" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB26" s="70"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="70"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="U27" s="18"/>
-      <c r="V27" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z27" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA27" s="109"/>
-      <c r="AB27" s="70"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="70"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="U28" s="18"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="70"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="70"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="U29" s="18"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="70"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="65"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="70"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="T30" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z30" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="70"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="70"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="U31" s="18"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="70"/>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="128" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="129"/>
-      <c r="M32" s="70"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="18"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="70"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="70"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="U33" s="18"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="70"/>
-    </row>
-    <row r="34" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="70"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="U34" s="18"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="70"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="107" t="s">
-        <v>134</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="70"/>
-      <c r="O35" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="U35" s="18"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB35" s="70"/>
-    </row>
-    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="70"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="U36" s="22"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
-      <c r="AA36" s="12"/>
-      <c r="AB36" s="70"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="70"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="74"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="128" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="129"/>
-      <c r="M38" s="70"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="70"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="39"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="70"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="34"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="70"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="70"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB42" s="53"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="126"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="124"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="70"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA43" s="109"/>
-      <c r="AB43" s="55"/>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="70"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="55"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="96" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="74"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA45" s="16"/>
-      <c r="AB45" s="55"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X46" s="12"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA46" s="16"/>
-      <c r="AB46" s="55"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N47" s="66"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="68"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="55"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N48" s="69"/>
-      <c r="O48" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="S48" s="59"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="70"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="55"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N49" s="69"/>
-      <c r="O49" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="70"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA49" s="64"/>
-      <c r="AB49" s="55"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N50" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="O50" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="70"/>
-      <c r="Y50" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="58"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N51" s="69"/>
-      <c r="O51" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="U51" s="70"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N52" s="69"/>
-      <c r="O52" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="S52" s="91"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="12"/>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="S53" s="33"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="70"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N54" s="69"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="S54" s="12"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="70"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="N55" s="69"/>
-      <c r="O55" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="R55" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="S55" s="92"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="70"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" t="s">
-        <v>192</v>
-      </c>
-      <c r="N56" s="69"/>
-      <c r="O56" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="S56" s="86"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="70"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="B57" t="s">
-        <v>194</v>
-      </c>
-      <c r="N57" s="69"/>
-      <c r="O57" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="70"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="113" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" t="s">
-        <v>195</v>
-      </c>
-      <c r="G58" t="s">
-        <v>205</v>
-      </c>
-      <c r="N58" s="69"/>
-      <c r="O58" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="70"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="B59" t="s">
-        <v>197</v>
-      </c>
-      <c r="N59" s="72"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="74"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A62" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" t="s">
-        <v>202</v>
-      </c>
-      <c r="H65" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>203</v>
-      </c>
-      <c r="H66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>213</v>
-      </c>
-      <c r="B73" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K32:L32"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E33 J27 J33:K33 E27:F30 K34">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I21" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8000,46 +4178,46 @@
   <sheetData>
     <row r="1" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
+      <c r="J2" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="61"/>
     </row>
     <row r="3" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J3" s="69"/>
+      <c r="J3" s="62"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
-      <c r="M3" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="109"/>
+      <c r="M3" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="N3" s="101"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="107" t="s">
+      <c r="Q3" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="117"/>
-      <c r="S3" s="70"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="63"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="61"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J4" s="69"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="15" t="s">
@@ -8049,49 +4227,49 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="23" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="R4" s="16"/>
-      <c r="S4" s="55"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="107" t="s">
-        <v>137</v>
-      </c>
-      <c r="W4" s="117"/>
+      <c r="S4" s="48"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" s="108"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="70"/>
+      <c r="AA4" s="63"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="17" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="17" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="R5" s="18"/>
-      <c r="S5" s="55"/>
-      <c r="U5" s="95" t="s">
+      <c r="S5" s="48"/>
+      <c r="U5" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="60" t="s">
-        <v>138</v>
+      <c r="V5" s="53" t="s">
+        <v>130</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="70"/>
+      <c r="AA5" s="63"/>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J6" s="69"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="17" t="s">
@@ -8100,53 +4278,53 @@
       <c r="N6" s="18"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="63" t="s">
-        <v>243</v>
-      </c>
-      <c r="R6" s="64"/>
-      <c r="S6" s="55"/>
-      <c r="U6" s="69"/>
+      <c r="Q6" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="R6" s="57"/>
+      <c r="S6" s="48"/>
+      <c r="U6" s="62"/>
       <c r="V6" s="17" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="W6" s="18"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="70"/>
+      <c r="AA6" s="63"/>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J7" s="69"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="N7" s="64"/>
+      <c r="M7" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" s="57"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="85" t="s">
+      <c r="Q7" s="78" t="s">
         <v>70</v>
       </c>
       <c r="R7" s="12"/>
-      <c r="S7" s="70"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="121" t="s">
-        <v>140</v>
-      </c>
-      <c r="W7" s="122"/>
+      <c r="S7" s="63"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="113" t="s">
+        <v>132</v>
+      </c>
+      <c r="W7" s="114"/>
       <c r="X7" s="12"/>
-      <c r="Y7" s="107" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z7" s="117"/>
-      <c r="AA7" s="70"/>
+      <c r="Y7" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="63"/>
     </row>
     <row r="8" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J8" s="69"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="85" t="s">
+      <c r="M8" s="78" t="s">
         <v>70</v>
       </c>
       <c r="N8" s="12"/>
@@ -8154,48 +4332,48 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="70"/>
-      <c r="U8" s="69"/>
+      <c r="S8" s="63"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="60" t="s">
-        <v>238</v>
+      <c r="Y8" s="53" t="s">
+        <v>204</v>
       </c>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="70"/>
+      <c r="AA8" s="63"/>
     </row>
     <row r="9" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J9" s="69"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="107" t="s">
+      <c r="O9" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="P9" s="109"/>
+      <c r="P9" s="101"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="70"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="W9" s="117"/>
+      <c r="S9" s="63"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="108"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z9" s="18"/>
-      <c r="AA9" s="70"/>
+      <c r="AA9" s="63"/>
     </row>
     <row r="10" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J10" s="69"/>
-      <c r="K10" s="107" t="s">
+      <c r="J10" s="62"/>
+      <c r="K10" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="117"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="15" t="s">
@@ -8204,23 +4382,23 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="70"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="60" t="s">
-        <v>239</v>
+      <c r="S10" s="63"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="53" t="s">
+        <v>205</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z10" s="18"/>
-      <c r="AA10" s="70"/>
+      <c r="AA10" s="63"/>
     </row>
     <row r="11" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J11" s="69"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="23" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="12"/>
@@ -8231,22 +4409,22 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="70"/>
-      <c r="U11" s="69"/>
+      <c r="S11" s="63"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="W11" s="18"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Z11" s="18"/>
-      <c r="AA11" s="70"/>
+      <c r="AA11" s="63"/>
     </row>
     <row r="12" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J12" s="69"/>
-      <c r="K12" s="41" t="s">
+      <c r="J12" s="62"/>
+      <c r="K12" s="39" t="s">
         <v>40</v>
       </c>
       <c r="L12" s="27"/>
@@ -8258,104 +4436,104 @@
       <c r="P12" s="18"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="70"/>
-      <c r="U12" s="69"/>
+      <c r="S12" s="63"/>
+      <c r="U12" s="62"/>
       <c r="V12" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="W12" s="18"/>
       <c r="X12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y12" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="70"/>
+      <c r="Y12" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="63"/>
     </row>
     <row r="13" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J13" s="69"/>
+      <c r="J13" s="62"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="P13" s="64"/>
+      <c r="O13" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="P13" s="57"/>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="70"/>
-      <c r="U13" s="69"/>
+      <c r="S13" s="63"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="W13" s="18"/>
-      <c r="X13" s="71" t="s">
+      <c r="X13" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="Y13" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="70"/>
+      <c r="Y13" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="63"/>
     </row>
     <row r="14" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="13"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="74"/>
-      <c r="U14" s="69"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="21" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="W14" s="22"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="21" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="Z14" s="22"/>
-      <c r="AA14" s="70"/>
+      <c r="AA14" s="63"/>
     </row>
     <row r="15" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="13"/>
       <c r="N15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="72"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="74"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="67"/>
     </row>
     <row r="16" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="68"/>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -8370,26 +4548,26 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
-        <v>141</v>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
+        <v>133</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="107" t="s">
+      <c r="F18" s="130"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="123"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-      <c r="M18" s="70"/>
+      <c r="M18" s="63"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
@@ -8405,155 +4583,157 @@
       <c r="AB18" s="12"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="J19" s="85" t="s">
+      <c r="J19" s="78" t="s">
         <v>70</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-      <c r="M19" s="70"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="84" t="s">
+      <c r="M19" s="63"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="83" t="s">
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="U19" s="97" t="s">
+      <c r="U19" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="67" t="s">
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="67"/>
-      <c r="AB19" s="68"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="61"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="71" t="s">
+      <c r="E20" s="133" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="134"/>
+      <c r="G20" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="126"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-      <c r="M20" s="70"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="109"/>
+      <c r="M20" s="63"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="101"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="U20" s="109"/>
+      <c r="T20" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="U20" s="101"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="107" t="s">
+      <c r="W20" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="107" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA20" s="117"/>
-      <c r="AB20" s="70"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+      <c r="AA20" s="108"/>
+      <c r="AB20" s="63"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="134"/>
       <c r="G21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="126"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="70"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="60" t="s">
-        <v>81</v>
+      <c r="M21" s="63"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="53" t="s">
+        <v>215</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="60" t="s">
-        <v>83</v>
+      <c r="T21" s="53" t="s">
+        <v>216</v>
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="W21" s="60" t="s">
-        <v>94</v>
+        <v>117</v>
+      </c>
+      <c r="W21" s="53" t="s">
+        <v>214</v>
       </c>
       <c r="X21" s="16"/>
       <c r="Y21" s="12"/>
-      <c r="Z21" s="60" t="s">
+      <c r="Z21" s="53" t="s">
         <v>23</v>
       </c>
       <c r="AA21" s="20"/>
-      <c r="AB21" s="70"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
+      <c r="AB21" s="63"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="136"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="126"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="70"/>
-      <c r="O22" s="69"/>
+      <c r="M22" s="63"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="17" t="s">
         <v>21</v>
       </c>
@@ -8561,44 +4741,42 @@
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="17" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="U22" s="18"/>
       <c r="V22" s="12" t="s">
         <v>71</v>
       </c>
       <c r="W22" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="X22" s="20"/>
       <c r="Y22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Z22" s="60" t="s">
+      <c r="Z22" s="53" t="s">
         <v>31</v>
       </c>
       <c r="AA22" s="20"/>
-      <c r="AB22" s="70"/>
+      <c r="AB22" s="63"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="22"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
       <c r="J23" s="12" t="s">
         <v>71</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-      <c r="M23" s="70"/>
-      <c r="O23" s="69"/>
+      <c r="M23" s="63"/>
+      <c r="O23" s="62"/>
       <c r="P23" s="17" t="s">
         <v>22</v>
       </c>
@@ -8609,44 +4787,44 @@
         <v>21</v>
       </c>
       <c r="U23" s="18"/>
-      <c r="V23" s="71" t="s">
+      <c r="V23" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="W23" s="94" t="s">
-        <v>96</v>
+      <c r="W23" s="87" t="s">
+        <v>92</v>
       </c>
       <c r="X23" s="25"/>
-      <c r="Y23" s="71" t="s">
+      <c r="Y23" s="64" t="s">
         <v>71</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="AA23" s="20"/>
-      <c r="AB23" s="70"/>
+      <c r="AB23" s="63"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="71" t="s">
+      <c r="G24" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="104" t="s">
+      <c r="H24" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="86" t="s">
+      <c r="I24" s="79" t="s">
         <v>70</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-      <c r="M24" s="70"/>
-      <c r="O24" s="69"/>
+      <c r="M24" s="63"/>
+      <c r="O24" s="62"/>
       <c r="P24" s="17" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="18"/>
       <c r="R24" s="12"/>
@@ -8660,16 +4838,16 @@
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="26" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AA24" s="25"/>
-      <c r="AB24" s="70"/>
+      <c r="AB24" s="63"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="42"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -8678,39 +4856,39 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-      <c r="M25" s="70"/>
-      <c r="O25" s="69"/>
+      <c r="M25" s="63"/>
+      <c r="O25" s="62"/>
       <c r="P25" s="17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="18"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="61" t="s">
-        <v>85</v>
+      <c r="T25" s="54" t="s">
+        <v>82</v>
       </c>
       <c r="U25" s="18"/>
       <c r="V25" s="12"/>
-      <c r="W25" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="X25" s="117"/>
+      <c r="W25" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="X25" s="108"/>
       <c r="Y25" s="12"/>
-      <c r="AB25" s="70"/>
+      <c r="AB25" s="63"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="41"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="71" t="s">
+      <c r="F26" s="64" t="s">
         <v>71</v>
       </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="97" t="s">
         <v>71</v>
       </c>
       <c r="I26" s="12"/>
@@ -8719,90 +4897,90 @@
         <v>71</v>
       </c>
       <c r="L26" s="12"/>
-      <c r="M26" s="70"/>
-      <c r="O26" s="69"/>
+      <c r="M26" s="63"/>
+      <c r="O26" s="62"/>
       <c r="P26" s="17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="18"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="61" t="s">
-        <v>86</v>
+      <c r="T26" s="54" t="s">
+        <v>83</v>
       </c>
       <c r="U26" s="18"/>
       <c r="V26" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="W26" s="60" t="s">
-        <v>106</v>
+      <c r="W26" s="53" t="s">
+        <v>217</v>
       </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AB26" s="70"/>
+      <c r="AB26" s="63"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="109"/>
+      <c r="E27" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="101"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="107" t="s">
-        <v>100</v>
+      <c r="H27" s="99" t="s">
+        <v>96</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="107" t="s">
+      <c r="K27" s="99" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="14"/>
-      <c r="M27" s="70"/>
-      <c r="O27" s="69"/>
+      <c r="M27" s="63"/>
+      <c r="O27" s="62"/>
       <c r="P27" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="18"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="61" t="s">
+      <c r="T27" s="54" t="s">
         <v>50</v>
       </c>
       <c r="U27" s="18"/>
-      <c r="V27" s="71" t="s">
+      <c r="V27" s="64" t="s">
         <v>71</v>
       </c>
       <c r="W27" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="X27" s="22"/>
-      <c r="Y27" s="71" t="s">
+      <c r="Y27" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="107" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="70"/>
+      <c r="Z27" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA27" s="108"/>
+      <c r="AB27" s="63"/>
     </row>
     <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
       <c r="E28" s="23" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="12"/>
@@ -8815,31 +4993,31 @@
         <v>6</v>
       </c>
       <c r="L28" s="16"/>
-      <c r="M28" s="70"/>
-      <c r="O28" s="69"/>
+      <c r="M28" s="63"/>
+      <c r="O28" s="62"/>
       <c r="P28" s="17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="18"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="61" t="s">
-        <v>89</v>
+      <c r="T28" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="U28" s="18"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
-      <c r="Z28" s="60" t="s">
-        <v>221</v>
+      <c r="Z28" s="53" t="s">
+        <v>218</v>
       </c>
       <c r="AA28" s="16"/>
-      <c r="AB28" s="70"/>
+      <c r="AB28" s="63"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="71" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="64" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="13"/>
@@ -8849,25 +5027,25 @@
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="62"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="12"/>
       <c r="K29" s="17" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="M29" s="70"/>
-      <c r="O29" s="69"/>
+      <c r="M29" s="63"/>
+      <c r="O29" s="62"/>
       <c r="P29" s="17" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="Q29" s="18"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="61" t="s">
-        <v>87</v>
+      <c r="T29" s="54" t="s">
+        <v>84</v>
       </c>
       <c r="U29" s="18"/>
       <c r="V29" s="12"/>
@@ -8875,13 +5053,13 @@
       <c r="X29" s="12"/>
       <c r="Y29" s="12"/>
       <c r="Z29" s="19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA29" s="20"/>
-      <c r="AB29" s="70"/>
+      <c r="AB29" s="63"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -8891,45 +5069,45 @@
       <c r="F30" s="20"/>
       <c r="G30" s="12"/>
       <c r="H30" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="65"/>
+        <v>125</v>
+      </c>
+      <c r="I30" s="58"/>
       <c r="J30" s="12"/>
       <c r="K30" s="17" t="s">
         <v>74</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="M30" s="70"/>
-      <c r="O30" s="69"/>
+      <c r="M30" s="63"/>
+      <c r="O30" s="62"/>
       <c r="P30" s="17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="Q30" s="18"/>
       <c r="R30" s="12"/>
-      <c r="S30" s="71" t="s">
+      <c r="S30" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="T30" s="61" t="s">
-        <v>88</v>
+      <c r="T30" s="54" t="s">
+        <v>85</v>
       </c>
       <c r="U30" s="18"/>
       <c r="V30" s="12"/>
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="71" t="s">
+      <c r="Y30" s="64" t="s">
         <v>71</v>
       </c>
       <c r="Z30" s="19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AA30" s="20"/>
-      <c r="AB30" s="70"/>
+      <c r="AB30" s="63"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="42"/>
+      <c r="A31" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="40"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
       <c r="E31" s="19" t="s">
@@ -8946,35 +5124,35 @@
         <v>31</v>
       </c>
       <c r="L31" s="20"/>
-      <c r="M31" s="70"/>
-      <c r="O31" s="69"/>
+      <c r="M31" s="63"/>
+      <c r="O31" s="62"/>
       <c r="P31" s="26" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q31" s="25"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="61" t="s">
-        <v>90</v>
+      <c r="T31" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="U31" s="18"/>
       <c r="V31" s="12"/>
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
-      <c r="Z31" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="70"/>
+      <c r="Z31" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="63"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="64" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="19" t="s">
@@ -8983,22 +5161,22 @@
       <c r="F32" s="20"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="29" t="s">
         <v>71</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="128" t="s">
+      <c r="K32" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="129"/>
-      <c r="M32" s="70"/>
-      <c r="O32" s="69"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="63"/>
+      <c r="O32" s="62"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
-      <c r="T32" s="61" t="s">
-        <v>91</v>
+      <c r="T32" s="54" t="s">
+        <v>88</v>
       </c>
       <c r="U32" s="18"/>
       <c r="V32" s="12"/>
@@ -9006,17 +5184,17 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AA32" s="18"/>
-      <c r="AB32" s="70"/>
+      <c r="AB32" s="63"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="104" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="97" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="12"/>
@@ -9030,14 +5208,14 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="70"/>
-      <c r="O33" s="69"/>
+      <c r="M33" s="63"/>
+      <c r="O33" s="62"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="61" t="s">
-        <v>92</v>
+      <c r="T33" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="U33" s="18"/>
       <c r="V33" s="12"/>
@@ -9045,19 +5223,19 @@
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
       <c r="Z33" s="17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AA33" s="18"/>
-      <c r="AB33" s="70"/>
+      <c r="AB33" s="63"/>
     </row>
     <row r="34" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="47"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="78" t="s">
         <v>71</v>
       </c>
       <c r="F34" s="12" t="s">
@@ -9071,55 +5249,55 @@
         <v>70</v>
       </c>
       <c r="L34" s="12"/>
-      <c r="M34" s="70"/>
-      <c r="O34" s="69"/>
+      <c r="M34" s="63"/>
+      <c r="O34" s="62"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="61" t="s">
-        <v>156</v>
+      <c r="T34" s="54" t="s">
+        <v>147</v>
       </c>
       <c r="U34" s="18"/>
       <c r="V34" s="12"/>
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
       <c r="Y34" s="12"/>
-      <c r="Z34" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA34" s="64"/>
-      <c r="AB34" s="70"/>
+      <c r="Z34" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="63"/>
     </row>
     <row r="35" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="107" t="s">
+      <c r="H35" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="I35" s="35"/>
+      <c r="I35" s="34"/>
       <c r="J35" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K35" s="107" t="s">
-        <v>134</v>
+      <c r="K35" s="99" t="s">
+        <v>126</v>
       </c>
       <c r="L35" s="14"/>
-      <c r="M35" s="70"/>
-      <c r="O35" s="90" t="s">
-        <v>155</v>
+      <c r="M35" s="63"/>
+      <c r="O35" s="83" t="s">
+        <v>146</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="61" t="s">
-        <v>152</v>
+      <c r="T35" s="54" t="s">
+        <v>143</v>
       </c>
       <c r="U35" s="18"/>
       <c r="V35" s="12"/>
@@ -9130,10 +5308,10 @@
       <c r="AA35" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AB35" s="70"/>
+      <c r="AB35" s="63"/>
     </row>
     <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -9145,20 +5323,20 @@
       <c r="H36" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="36"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="12"/>
       <c r="K36" s="23" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L36" s="16"/>
-      <c r="M36" s="70"/>
-      <c r="O36" s="69"/>
+      <c r="M36" s="63"/>
+      <c r="O36" s="62"/>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" s="21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="12"/>
@@ -9167,47 +5345,47 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
-      <c r="AB36" s="70"/>
+      <c r="AB36" s="63"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="108" t="s">
+      <c r="E37" s="100" t="s">
         <v>60</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="37" t="s">
+      <c r="H37" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="34"/>
+      <c r="I37" s="33"/>
       <c r="J37" s="12"/>
       <c r="K37" s="17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L37" s="18"/>
-      <c r="M37" s="70"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="96" t="s">
+      <c r="M37" s="63"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="74"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="67"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -9216,16 +5394,16 @@
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="37" t="s">
+      <c r="H38" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="34"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="128" t="s">
+      <c r="K38" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="129"/>
-      <c r="M38" s="70"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="63"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
@@ -9241,7 +5419,7 @@
       <c r="AB38" s="12"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -9250,14 +5428,14 @@
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="34"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="12"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
-      <c r="M39" s="70"/>
+      <c r="M39" s="63"/>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
@@ -9273,28 +5451,28 @@
       <c r="AB39" s="12"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="32"/>
+      <c r="F40" s="31"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="70"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="63"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -9303,17 +5481,17 @@
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="34"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="70"/>
+      <c r="M41" s="63"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -9322,48 +5500,48 @@
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="31" t="s">
+      <c r="H42" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I42" s="32"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-      <c r="M42" s="70"/>
-      <c r="Y42" s="51"/>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52" t="s">
+      <c r="M42" s="63"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="AB42" s="53"/>
+      <c r="AB42" s="46"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="69"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="125" t="s">
+      <c r="E43" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="126"/>
+      <c r="F43" s="118"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="123" t="s">
+      <c r="H43" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="124"/>
+      <c r="I43" s="116"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-      <c r="M43" s="70"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA43" s="117"/>
-      <c r="AB43" s="55"/>
+      <c r="M43" s="63"/>
+      <c r="Y43" s="47"/>
+      <c r="Z43" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA43" s="108"/>
+      <c r="AB43" s="48"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
@@ -9377,105 +5555,105 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-      <c r="M44" s="70"/>
-      <c r="Y44" s="54"/>
-      <c r="Z44" s="60" t="s">
-        <v>222</v>
+      <c r="M44" s="63"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="53" t="s">
+        <v>191</v>
       </c>
       <c r="AA44" s="20"/>
-      <c r="AB44" s="55"/>
+      <c r="AB44" s="48"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="72"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="96" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="73"/>
-      <c r="M45" s="74"/>
-      <c r="Y45" s="54"/>
-      <c r="Z45" s="60" t="s">
-        <v>117</v>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="67"/>
+      <c r="Y45" s="47"/>
+      <c r="Z45" s="53" t="s">
+        <v>112</v>
       </c>
       <c r="AA45" s="16"/>
-      <c r="AB45" s="55"/>
+      <c r="AB45" s="48"/>
     </row>
     <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="X46" s="12"/>
-      <c r="Y46" s="54"/>
-      <c r="Z46" s="60" t="s">
-        <v>118</v>
+      <c r="Y46" s="47"/>
+      <c r="Z46" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="AA46" s="16"/>
-      <c r="AB46" s="55"/>
+      <c r="AB46" s="48"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N47" s="66"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67" t="s">
+      <c r="N47" s="59"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="Q47" s="52"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="68"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="61"/>
       <c r="X47" s="12"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA47" s="62"/>
-      <c r="AB47" s="55"/>
+      <c r="Y47" s="47"/>
+      <c r="Z47" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="48"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N48" s="69"/>
-      <c r="O48" s="107" t="s">
+      <c r="N48" s="62"/>
+      <c r="O48" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="130"/>
+      <c r="P48" s="109"/>
       <c r="Q48" s="13"/>
-      <c r="R48" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="S48" s="59"/>
+      <c r="R48" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="S48" s="52"/>
       <c r="T48" s="12"/>
-      <c r="U48" s="70"/>
-      <c r="Y48" s="54"/>
-      <c r="Z48" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="55"/>
+      <c r="U48" s="63"/>
+      <c r="Y48" s="47"/>
+      <c r="Z48" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA48" s="55"/>
+      <c r="AB48" s="48"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N49" s="69"/>
+      <c r="N49" s="62"/>
       <c r="O49" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P49" s="29"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="13"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
-      <c r="U49" s="70"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA49" s="64"/>
-      <c r="AB49" s="55"/>
+      <c r="U49" s="63"/>
+      <c r="Y49" s="47"/>
+      <c r="Z49" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA49" s="57"/>
+      <c r="AB49" s="48"/>
     </row>
     <row r="50" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N50" s="95" t="s">
+      <c r="N50" s="88" t="s">
         <v>70</v>
       </c>
       <c r="O50" s="17" t="s">
@@ -9486,16 +5664,16 @@
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="70"/>
-      <c r="Y50" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="58"/>
+      <c r="U50" s="63"/>
+      <c r="Y50" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z50" s="50"/>
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="51"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N51" s="69"/>
+      <c r="N51" s="62"/>
       <c r="O51" s="19" t="s">
         <v>80</v>
       </c>
@@ -9503,102 +5681,102 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="71" t="s">
+      <c r="T51" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="U51" s="70"/>
+      <c r="U51" s="63"/>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N52" s="69"/>
+      <c r="N52" s="62"/>
       <c r="O52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="P52" s="22"/>
       <c r="Q52" s="13"/>
-      <c r="R52" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="S52" s="91"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="70"/>
+      <c r="R52" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="S52" s="84"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="63"/>
       <c r="V52" s="12"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="N53" s="69"/>
+      <c r="N53" s="62"/>
       <c r="O53" s="12"/>
       <c r="P53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="Q53" s="13"/>
-      <c r="R53" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="S53" s="33"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="70"/>
+      <c r="R53" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="S53" s="32"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="63"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N54" s="69"/>
+      <c r="N54" s="62"/>
       <c r="O54" s="12"/>
       <c r="P54" s="12" t="s">
         <v>70</v>
       </c>
       <c r="Q54" s="12"/>
-      <c r="R54" s="79" t="s">
-        <v>114</v>
+      <c r="R54" s="72" t="s">
+        <v>109</v>
       </c>
       <c r="S54" s="12"/>
-      <c r="T54" s="80"/>
-      <c r="U54" s="70"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="63"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N55" s="69"/>
-      <c r="O55" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="N55" s="62"/>
+      <c r="O55" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="P55" s="130"/>
+      <c r="P55" s="109"/>
       <c r="Q55" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R55" s="81" t="s">
+      <c r="R55" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="S55" s="92"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="70"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="63"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="112" t="s">
-        <v>191</v>
+      <c r="A56" s="103" t="s">
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
-      </c>
-      <c r="N56" s="69"/>
+        <v>194</v>
+      </c>
+      <c r="N56" s="62"/>
       <c r="O56" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P56" s="29"/>
+      <c r="P56" s="28"/>
       <c r="Q56" s="12"/>
-      <c r="R56" s="86" t="s">
+      <c r="R56" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="S56" s="86"/>
+      <c r="S56" s="79"/>
       <c r="T56" s="12"/>
-      <c r="U56" s="70"/>
+      <c r="U56" s="63"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="113" t="s">
-        <v>193</v>
+      <c r="A57" s="104" t="s">
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>227</v>
-      </c>
-      <c r="N57" s="69"/>
+        <v>196</v>
+      </c>
+      <c r="N57" s="62"/>
       <c r="O57" s="17" t="s">
         <v>14</v>
       </c>
@@ -9607,19 +5785,19 @@
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
-      <c r="U57" s="70"/>
+      <c r="U57" s="63"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="113" t="s">
-        <v>193</v>
+      <c r="A58" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="104" t="s">
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
-      </c>
-      <c r="N58" s="69"/>
+        <v>199</v>
+      </c>
+      <c r="N58" s="62"/>
       <c r="O58" s="21" t="s">
         <v>79</v>
       </c>
@@ -9630,38 +5808,38 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="70"/>
+      <c r="U58" s="63"/>
     </row>
     <row r="59" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="114" t="s">
-        <v>196</v>
+      <c r="A59" s="105" t="s">
+        <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>231</v>
-      </c>
-      <c r="N59" s="72"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="74"/>
+        <v>200</v>
+      </c>
+      <c r="N59" s="65"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="67"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="116" t="s">
-        <v>219</v>
+      <c r="A60" s="107" t="s">
+        <v>189</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="115" t="s">
-        <v>198</v>
+      <c r="A64" s="106" t="s">
+        <v>184</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
@@ -9669,12 +5847,12 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
@@ -9688,7 +5866,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9729,7 +5907,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -9770,10 +5948,10 @@
       <c r="V73" s="3"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="109"/>
+      <c r="A74" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="101"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -9795,12 +5973,12 @@
       <c r="V74" s="3"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="61" t="s">
-        <v>90</v>
+      <c r="A75" s="54" t="s">
+        <v>87</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -9821,8 +5999,8 @@
       <c r="V75" s="3"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="61" t="s">
-        <v>91</v>
+      <c r="A76" s="54" t="s">
+        <v>88</v>
       </c>
       <c r="B76" s="18"/>
     </row>
@@ -9834,23 +6012,23 @@
       <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="107" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" s="109"/>
+      <c r="A78" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="101"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="18"/>
     </row>
@@ -9860,10 +6038,10 @@
       <c r="C81" s="12"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="107" t="s">
+      <c r="A82" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="109"/>
+      <c r="B82" s="101"/>
       <c r="C82" s="13"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -9874,7 +6052,7 @@
       </c>
       <c r="B83" s="18"/>
       <c r="C83" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -9900,18 +6078,18 @@
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="109"/>
+      <c r="A86" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="101"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -9962,7 +6140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -9978,252 +6156,252 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="94" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="94"/>
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="94"/>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="93">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="94" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="B16" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="99" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="94"/>
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="94" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="94"/>
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="94"/>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="93">
+        <v>3</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="94" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="17"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="100">
-        <v>2</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="94" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="94"/>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="95" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="101" t="s">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="101" t="s">
+      <c r="B30" s="96"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="94"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="94"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="93">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="101" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="17"/>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="101" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="94" t="s">
         <v>177</v>
-      </c>
-      <c r="B21" s="17"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="100">
-        <v>3</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
-      <c r="B28" s="17"/>
-    </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="17"/>
-    </row>
-    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="103"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="100">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="101" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="101" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="101" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
+      <c r="A40" s="94"/>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="101" t="s">
-        <v>188</v>
+      <c r="A41" s="94" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="101" t="s">
-        <v>189</v>
+      <c r="A42" s="94" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="101"/>
+      <c r="A43" s="94"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="101"/>
+      <c r="A44" s="94"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
+      <c r="A45" s="94"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="101"/>
+      <c r="A46" s="94"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="101"/>
+      <c r="A47" s="94"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
+      <c r="A48" s="94"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="101"/>
+      <c r="A49" s="94"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
+      <c r="A50" s="94"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
+      <c r="A51" s="94"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
+      <c r="A52" s="94"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
+      <c r="A53" s="94"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
+      <c r="A54" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/DB y Operaciones de Usuario.xlsx
+++ b/database/DB y Operaciones de Usuario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
   <si>
     <t>Teléfonos</t>
   </si>
@@ -760,6 +760,15 @@
   </si>
   <si>
     <t>Empleado_Laborando</t>
+  </si>
+  <si>
+    <t>Credenciales_Sistema</t>
+  </si>
+  <si>
+    <t>password: varchar(40)</t>
+  </si>
+  <si>
+    <t>*id_sistema: int(11)</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1408,42 +1417,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,6 +1433,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3926,10 +3937,10 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="111"/>
+      <c r="C14" s="127"/>
       <c r="F14" s="3"/>
       <c r="H14" s="1" t="s">
         <v>48</v>
@@ -4008,8 +4019,8 @@
         <v>6</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
       <c r="K20" s="12" t="s">
         <v>46</v>
       </c>
@@ -4024,10 +4035,10 @@
       <c r="E21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="110" t="s">
+      <c r="K21" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="110"/>
+      <c r="L21" s="126"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -4058,10 +4069,10 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="111"/>
+      <c r="C24" s="127"/>
       <c r="E24" t="s">
         <v>55</v>
       </c>
@@ -4114,10 +4125,10 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H30" s="112" t="s">
+      <c r="H30" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="112"/>
+      <c r="I30" s="128"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="I31" s="3"/>
@@ -4144,8 +4155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I6" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,7 +4228,9 @@
       <c r="AA3" s="61"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J4" s="62"/>
+      <c r="J4" s="62" t="s">
+        <v>220</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="15" t="s">
@@ -4242,8 +4255,10 @@
       <c r="AA4" s="63"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J5" s="62"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="139"/>
       <c r="L5" s="12"/>
       <c r="M5" s="17" t="s">
         <v>206</v>
@@ -4269,8 +4284,10 @@
       <c r="AA5" s="63"/>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J6" s="62"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="139"/>
       <c r="L6" s="12"/>
       <c r="M6" s="17" t="s">
         <v>18</v>
@@ -4309,10 +4326,10 @@
       <c r="R7" s="12"/>
       <c r="S7" s="63"/>
       <c r="U7" s="62"/>
-      <c r="V7" s="113" t="s">
+      <c r="V7" s="129" t="s">
         <v>132</v>
       </c>
-      <c r="W7" s="114"/>
+      <c r="W7" s="130"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="99" t="s">
         <v>122</v>
@@ -4555,15 +4572,15 @@
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="129" t="s">
+      <c r="E18" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="130"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="64"/>
-      <c r="H18" s="122" t="s">
+      <c r="H18" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="123"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -4587,15 +4604,15 @@
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="132"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="124" t="s">
+      <c r="H19" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="I19" s="125" t="s">
+      <c r="I19" s="113" t="s">
         <v>69</v>
       </c>
       <c r="J19" s="78" t="s">
@@ -4632,17 +4649,17 @@
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="133" t="s">
+      <c r="E20" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="134"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="64" t="s">
         <v>71</v>
       </c>
       <c r="H20" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="126"/>
+      <c r="I20" s="114"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -4675,17 +4692,17 @@
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="137" t="s">
+      <c r="E21" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="134"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H21" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="126"/>
+      <c r="I21" s="114"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -4720,15 +4737,15 @@
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="135" t="s">
+      <c r="E22" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="136"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="12"/>
       <c r="H22" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="126"/>
+      <c r="I22" s="114"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -4768,8 +4785,8 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
       <c r="J23" s="12" t="s">
         <v>71</v>
       </c>
@@ -5165,10 +5182,10 @@
         <v>71</v>
       </c>
       <c r="J32" s="12"/>
-      <c r="K32" s="120" t="s">
+      <c r="K32" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="121"/>
+      <c r="L32" s="132"/>
       <c r="M32" s="63"/>
       <c r="O32" s="62"/>
       <c r="P32" s="12"/>
@@ -5399,10 +5416,10 @@
       </c>
       <c r="I38" s="33"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="120" t="s">
+      <c r="K38" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="121"/>
+      <c r="L38" s="132"/>
       <c r="M38" s="63"/>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
@@ -5465,8 +5482,8 @@
       </c>
       <c r="I40" s="38"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
       <c r="M40" s="63"/>
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
@@ -5520,15 +5537,15 @@
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="117" t="s">
+      <c r="E43" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="118"/>
+      <c r="F43" s="135"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="115" t="s">
+      <c r="H43" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="I43" s="116"/>
+      <c r="I43" s="137"/>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
@@ -6145,7 +6162,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/DB y Operaciones de Usuario.xlsx
+++ b/database/DB y Operaciones de Usuario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="224">
   <si>
     <t>Teléfonos</t>
   </si>
@@ -735,30 +735,15 @@
     <t>Especificar este constraint.</t>
   </si>
   <si>
-    <t>id_address: int(11)</t>
-  </si>
-  <si>
     <t>address: varchar(140)</t>
   </si>
   <si>
     <t>id_correspondiente: int(11)</t>
   </si>
   <si>
-    <t>id_asesor: int(11) - Auto-Increment</t>
-  </si>
-  <si>
-    <t>id_postulante: int(11) - Auto-Increment</t>
-  </si>
-  <si>
-    <t>id_empleado: int(11) - Auto-Increment</t>
-  </si>
-  <si>
     <t>id_catedratico: int(11) - Auto-Increment</t>
   </si>
   <si>
-    <t>id_asignacion_catedratico: int(11) - Auto-Increment</t>
-  </si>
-  <si>
     <t>Empleado_Laborando</t>
   </si>
   <si>
@@ -769,6 +754,24 @@
   </si>
   <si>
     <t>*id_sistema: int(11)</t>
+  </si>
+  <si>
+    <t>id_address: int(11), Auto_Increment</t>
+  </si>
+  <si>
+    <t>id_asesor: int(11), Auto_Increment</t>
+  </si>
+  <si>
+    <t>id_postulante: int(11), Auto_Increment</t>
+  </si>
+  <si>
+    <t>id_empleado: int(11), Auto_Increment</t>
+  </si>
+  <si>
+    <t>id_asignacion_catedratico: int(11), Auto_Increment</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1469,8 +1472,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3451,6 +3460,138 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>461596</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>464635</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conector recto 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8447942" y="1157654"/>
+          <a:ext cx="3039" cy="2403231"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460346</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1788</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>94714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Conector recto 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8446692" y="3556060"/>
+          <a:ext cx="8326423" cy="11616"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>915865</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Conector recto 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="3568212"/>
+          <a:ext cx="359019" cy="864576"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4155,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4173,17 +4314,17 @@
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.5703125" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
     <col min="19" max="19" width="5.28515625" customWidth="1"/>
     <col min="20" max="20" width="18.42578125" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
     <col min="22" max="22" width="12.5703125" customWidth="1"/>
     <col min="23" max="23" width="16.140625" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
     <col min="25" max="25" width="16.28515625" customWidth="1"/>
     <col min="26" max="26" width="14" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" customWidth="1"/>
+    <col min="27" max="27" width="28" customWidth="1"/>
     <col min="28" max="28" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4228,10 +4369,10 @@
       <c r="AA3" s="61"/>
     </row>
     <row r="4" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J4" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="K4" s="12"/>
+      <c r="J4" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="138"/>
       <c r="L4" s="12"/>
       <c r="M4" s="15" t="s">
         <v>17</v>
@@ -4240,7 +4381,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="23" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="R4" s="16"/>
       <c r="S4" s="48"/>
@@ -4255,10 +4396,10 @@
       <c r="AA4" s="63"/>
     </row>
     <row r="5" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J5" s="138" t="s">
-        <v>222</v>
-      </c>
-      <c r="K5" s="139"/>
+      <c r="J5" s="139" t="s">
+        <v>217</v>
+      </c>
+      <c r="K5" s="140"/>
       <c r="L5" s="12"/>
       <c r="M5" s="17" t="s">
         <v>206</v>
@@ -4267,7 +4408,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R5" s="18"/>
       <c r="S5" s="48"/>
@@ -4284,10 +4425,10 @@
       <c r="AA5" s="63"/>
     </row>
     <row r="6" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J6" s="138" t="s">
-        <v>221</v>
-      </c>
-      <c r="K6" s="139"/>
+      <c r="J6" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="142"/>
       <c r="L6" s="12"/>
       <c r="M6" s="17" t="s">
         <v>18</v>
@@ -4311,7 +4452,9 @@
       <c r="AA6" s="63"/>
     </row>
     <row r="7" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="J7" s="62"/>
+      <c r="J7" s="143" t="s">
+        <v>223</v>
+      </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="56" t="s">
@@ -4415,7 +4558,7 @@
     <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="J11" s="62"/>
       <c r="K11" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="12"/>
@@ -4672,7 +4815,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="99" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="U20" s="101"/>
       <c r="V20" s="12"/>
@@ -4709,20 +4852,20 @@
       <c r="M21" s="63"/>
       <c r="O21" s="62"/>
       <c r="P21" s="53" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="53" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="12" t="s">
         <v>117</v>
       </c>
       <c r="W21" s="53" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="X21" s="16"/>
       <c r="Y21" s="12"/>
@@ -4845,7 +4988,9 @@
       </c>
       <c r="Q24" s="18"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
+      <c r="S24" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="T24" s="17" t="s">
         <v>22</v>
       </c>
@@ -4930,7 +5075,7 @@
         <v>71</v>
       </c>
       <c r="W26" s="53" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="12" t="s">
@@ -5027,7 +5172,7 @@
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="53" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AA28" s="16"/>
       <c r="AB28" s="63"/>
